--- a/Teams.xlsx
+++ b/Teams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIHT\cg\02batch05042021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162D02D2-E306-45F7-8D21-BBBE1A82BDA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2EE5C1-DFAE-4F83-B978-0E476BC4D530}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6D5692CA-8987-4F28-9638-79F47074A2C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D5692CA-8987-4F28-9638-79F47074A2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="78">
   <si>
     <t>Arpit Jain</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>Good Progress</t>
+  </si>
+  <si>
+    <t>Not willing to participate - informed through email</t>
+  </si>
+  <si>
+    <t>Cannot participate because of poor internet connectivity - informed through email</t>
+  </si>
+  <si>
+    <t>Cannot participate because of COVID symptoms - informed through email</t>
+  </si>
+  <si>
+    <t>Moved To Team - 5 (OnlineFoodDeliveryAppication)</t>
   </si>
 </sst>
 </file>
@@ -309,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +340,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -341,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -355,6 +373,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,17 +688,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0058E4E4-0F20-4340-AB80-19A332629338}">
-  <dimension ref="A3:EF48"/>
+  <dimension ref="A3:EF50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="71.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:136" x14ac:dyDescent="0.3">
@@ -730,9 +749,6 @@
       </c>
     </row>
     <row r="7" spans="1:136" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -867,15 +883,9 @@
       <c r="EF7"/>
     </row>
     <row r="9" spans="1:136" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>6</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
@@ -885,354 +895,227 @@
       <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:136" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:136" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BE10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
-      <c r="BQ10"/>
-      <c r="BR10"/>
-      <c r="BS10"/>
-      <c r="BT10"/>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
-      <c r="BY10"/>
-      <c r="BZ10"/>
-      <c r="CA10"/>
-      <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10"/>
-      <c r="CF10"/>
-      <c r="CG10"/>
-      <c r="CH10"/>
-      <c r="CI10"/>
-      <c r="CJ10"/>
-      <c r="CK10"/>
-      <c r="CL10"/>
-      <c r="CM10"/>
-      <c r="CN10"/>
-      <c r="CO10"/>
-      <c r="CP10"/>
-      <c r="CQ10"/>
-      <c r="CR10"/>
-      <c r="CS10"/>
-      <c r="CT10"/>
-      <c r="CU10"/>
-      <c r="CV10"/>
-      <c r="CW10"/>
-      <c r="CX10"/>
-      <c r="CY10"/>
-      <c r="CZ10"/>
-      <c r="DA10"/>
-      <c r="DB10"/>
-      <c r="DC10"/>
-      <c r="DD10"/>
-      <c r="DE10"/>
-      <c r="DF10"/>
-      <c r="DG10"/>
-      <c r="DH10"/>
-      <c r="DI10"/>
-      <c r="DJ10"/>
-      <c r="DK10"/>
-      <c r="DL10"/>
-      <c r="DM10"/>
-      <c r="DN10"/>
-      <c r="DO10"/>
-      <c r="DP10"/>
-      <c r="DQ10"/>
-      <c r="DR10"/>
-      <c r="DS10"/>
-      <c r="DT10"/>
-      <c r="DU10"/>
-      <c r="DV10"/>
-      <c r="DW10"/>
-      <c r="DX10"/>
-      <c r="DY10"/>
-      <c r="DZ10"/>
-      <c r="EA10"/>
-      <c r="EB10"/>
-      <c r="EC10"/>
-      <c r="ED10"/>
-      <c r="EE10"/>
-      <c r="EF10"/>
-    </row>
-    <row r="11" spans="1:136" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11"/>
+      <c r="BN11"/>
+      <c r="BO11"/>
+      <c r="BP11"/>
+      <c r="BQ11"/>
+      <c r="BR11"/>
+      <c r="BS11"/>
+      <c r="BT11"/>
+      <c r="BU11"/>
+      <c r="BV11"/>
+      <c r="BW11"/>
+      <c r="BX11"/>
+      <c r="BY11"/>
+      <c r="BZ11"/>
+      <c r="CA11"/>
+      <c r="CB11"/>
+      <c r="CC11"/>
+      <c r="CD11"/>
+      <c r="CE11"/>
+      <c r="CF11"/>
+      <c r="CG11"/>
+      <c r="CH11"/>
+      <c r="CI11"/>
+      <c r="CJ11"/>
+      <c r="CK11"/>
+      <c r="CL11"/>
+      <c r="CM11"/>
+      <c r="CN11"/>
+      <c r="CO11"/>
+      <c r="CP11"/>
+      <c r="CQ11"/>
+      <c r="CR11"/>
+      <c r="CS11"/>
+      <c r="CT11"/>
+      <c r="CU11"/>
+      <c r="CV11"/>
+      <c r="CW11"/>
+      <c r="CX11"/>
+      <c r="CY11"/>
+      <c r="CZ11"/>
+      <c r="DA11"/>
+      <c r="DB11"/>
+      <c r="DC11"/>
+      <c r="DD11"/>
+      <c r="DE11"/>
+      <c r="DF11"/>
+      <c r="DG11"/>
+      <c r="DH11"/>
+      <c r="DI11"/>
+      <c r="DJ11"/>
+      <c r="DK11"/>
+      <c r="DL11"/>
+      <c r="DM11"/>
+      <c r="DN11"/>
+      <c r="DO11"/>
+      <c r="DP11"/>
+      <c r="DQ11"/>
+      <c r="DR11"/>
+      <c r="DS11"/>
+      <c r="DT11"/>
+      <c r="DU11"/>
+      <c r="DV11"/>
+      <c r="DW11"/>
+      <c r="DX11"/>
+      <c r="DY11"/>
+      <c r="DZ11"/>
+      <c r="EA11"/>
+      <c r="EB11"/>
+      <c r="EC11"/>
+      <c r="ED11"/>
+      <c r="EE11"/>
+      <c r="EF11"/>
+    </row>
+    <row r="12" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:136" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:136" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:136" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>48</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:136" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="18" spans="1:136" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
-      <c r="AG17"/>
-      <c r="AH17"/>
-      <c r="AI17"/>
-      <c r="AJ17"/>
-      <c r="AK17"/>
-      <c r="AL17"/>
-      <c r="AM17"/>
-      <c r="AN17"/>
-      <c r="AO17"/>
-      <c r="AP17"/>
-      <c r="AQ17"/>
-      <c r="AR17"/>
-      <c r="AS17"/>
-      <c r="AT17"/>
-      <c r="AU17"/>
-      <c r="AV17"/>
-      <c r="AW17"/>
-      <c r="AX17"/>
-      <c r="AY17"/>
-      <c r="AZ17"/>
-      <c r="BA17"/>
-      <c r="BB17"/>
-      <c r="BC17"/>
-      <c r="BD17"/>
-      <c r="BE17"/>
-      <c r="BF17"/>
-      <c r="BG17"/>
-      <c r="BH17"/>
-      <c r="BI17"/>
-      <c r="BJ17"/>
-      <c r="BK17"/>
-      <c r="BL17"/>
-      <c r="BM17"/>
-      <c r="BN17"/>
-      <c r="BO17"/>
-      <c r="BP17"/>
-      <c r="BQ17"/>
-      <c r="BR17"/>
-      <c r="BS17"/>
-      <c r="BT17"/>
-      <c r="BU17"/>
-      <c r="BV17"/>
-      <c r="BW17"/>
-      <c r="BX17"/>
-      <c r="BY17"/>
-      <c r="BZ17"/>
-      <c r="CA17"/>
-      <c r="CB17"/>
-      <c r="CC17"/>
-      <c r="CD17"/>
-      <c r="CE17"/>
-      <c r="CF17"/>
-      <c r="CG17"/>
-      <c r="CH17"/>
-      <c r="CI17"/>
-      <c r="CJ17"/>
-      <c r="CK17"/>
-      <c r="CL17"/>
-      <c r="CM17"/>
-      <c r="CN17"/>
-      <c r="CO17"/>
-      <c r="CP17"/>
-      <c r="CQ17"/>
-      <c r="CR17"/>
-      <c r="CS17"/>
-      <c r="CT17"/>
-      <c r="CU17"/>
-      <c r="CV17"/>
-      <c r="CW17"/>
-      <c r="CX17"/>
-      <c r="CY17"/>
-      <c r="CZ17"/>
-      <c r="DA17"/>
-      <c r="DB17"/>
-      <c r="DC17"/>
-      <c r="DD17"/>
-      <c r="DE17"/>
-      <c r="DF17"/>
-      <c r="DG17"/>
-      <c r="DH17"/>
-      <c r="DI17"/>
-      <c r="DJ17"/>
-      <c r="DK17"/>
-      <c r="DL17"/>
-      <c r="DM17"/>
-      <c r="DN17"/>
-      <c r="DO17"/>
-      <c r="DP17"/>
-      <c r="DQ17"/>
-      <c r="DR17"/>
-      <c r="DS17"/>
-      <c r="DT17"/>
-      <c r="DU17"/>
-      <c r="DV17"/>
-      <c r="DW17"/>
-      <c r="DX17"/>
-      <c r="DY17"/>
-      <c r="DZ17"/>
-      <c r="EA17"/>
-      <c r="EB17"/>
-      <c r="EC17"/>
-      <c r="ED17"/>
-      <c r="EE17"/>
-      <c r="EF17"/>
-    </row>
-    <row r="18" spans="1:136" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>66</v>
@@ -1364,614 +1247,742 @@
       <c r="EE18"/>
       <c r="EF18"/>
     </row>
-    <row r="19" spans="1:136" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:136" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+      <c r="BK19"/>
+      <c r="BL19"/>
+      <c r="BM19"/>
+      <c r="BN19"/>
+      <c r="BO19"/>
+      <c r="BP19"/>
+      <c r="BQ19"/>
+      <c r="BR19"/>
+      <c r="BS19"/>
+      <c r="BT19"/>
+      <c r="BU19"/>
+      <c r="BV19"/>
+      <c r="BW19"/>
+      <c r="BX19"/>
+      <c r="BY19"/>
+      <c r="BZ19"/>
+      <c r="CA19"/>
+      <c r="CB19"/>
+      <c r="CC19"/>
+      <c r="CD19"/>
+      <c r="CE19"/>
+      <c r="CF19"/>
+      <c r="CG19"/>
+      <c r="CH19"/>
+      <c r="CI19"/>
+      <c r="CJ19"/>
+      <c r="CK19"/>
+      <c r="CL19"/>
+      <c r="CM19"/>
+      <c r="CN19"/>
+      <c r="CO19"/>
+      <c r="CP19"/>
+      <c r="CQ19"/>
+      <c r="CR19"/>
+      <c r="CS19"/>
+      <c r="CT19"/>
+      <c r="CU19"/>
+      <c r="CV19"/>
+      <c r="CW19"/>
+      <c r="CX19"/>
+      <c r="CY19"/>
+      <c r="CZ19"/>
+      <c r="DA19"/>
+      <c r="DB19"/>
+      <c r="DC19"/>
+      <c r="DD19"/>
+      <c r="DE19"/>
+      <c r="DF19"/>
+      <c r="DG19"/>
+      <c r="DH19"/>
+      <c r="DI19"/>
+      <c r="DJ19"/>
+      <c r="DK19"/>
+      <c r="DL19"/>
+      <c r="DM19"/>
+      <c r="DN19"/>
+      <c r="DO19"/>
+      <c r="DP19"/>
+      <c r="DQ19"/>
+      <c r="DR19"/>
+      <c r="DS19"/>
+      <c r="DT19"/>
+      <c r="DU19"/>
+      <c r="DV19"/>
+      <c r="DW19"/>
+      <c r="DX19"/>
+      <c r="DY19"/>
+      <c r="DZ19"/>
+      <c r="EA19"/>
+      <c r="EB19"/>
+      <c r="EC19"/>
+      <c r="ED19"/>
+      <c r="EE19"/>
+      <c r="EF19"/>
+    </row>
+    <row r="20" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:136" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>61</v>
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:136" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:136" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>20</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-      <c r="AE25"/>
-      <c r="AF25"/>
-      <c r="AG25"/>
-      <c r="AH25"/>
-      <c r="AI25"/>
-      <c r="AJ25"/>
-      <c r="AK25"/>
-      <c r="AL25"/>
-      <c r="AM25"/>
-      <c r="AN25"/>
-      <c r="AO25"/>
-      <c r="AP25"/>
-      <c r="AQ25"/>
-      <c r="AR25"/>
-      <c r="AS25"/>
-      <c r="AT25"/>
-      <c r="AU25"/>
-      <c r="AV25"/>
-      <c r="AW25"/>
-      <c r="AX25"/>
-      <c r="AY25"/>
-      <c r="AZ25"/>
-      <c r="BA25"/>
-      <c r="BB25"/>
-      <c r="BC25"/>
-      <c r="BD25"/>
-      <c r="BE25"/>
-      <c r="BF25"/>
-      <c r="BG25"/>
-      <c r="BH25"/>
-      <c r="BI25"/>
-      <c r="BJ25"/>
-      <c r="BK25"/>
-      <c r="BL25"/>
-      <c r="BM25"/>
-      <c r="BN25"/>
-      <c r="BO25"/>
-      <c r="BP25"/>
-      <c r="BQ25"/>
-      <c r="BR25"/>
-      <c r="BS25"/>
-      <c r="BT25"/>
-      <c r="BU25"/>
-      <c r="BV25"/>
-      <c r="BW25"/>
-      <c r="BX25"/>
-      <c r="BY25"/>
-      <c r="BZ25"/>
-      <c r="CA25"/>
-      <c r="CB25"/>
-      <c r="CC25"/>
-      <c r="CD25"/>
-      <c r="CE25"/>
-      <c r="CF25"/>
-      <c r="CG25"/>
-      <c r="CH25"/>
-      <c r="CI25"/>
-      <c r="CJ25"/>
-      <c r="CK25"/>
-      <c r="CL25"/>
-      <c r="CM25"/>
-      <c r="CN25"/>
-      <c r="CO25"/>
-      <c r="CP25"/>
-      <c r="CQ25"/>
-      <c r="CR25"/>
-      <c r="CS25"/>
-      <c r="CT25"/>
-      <c r="CU25"/>
-      <c r="CV25"/>
-      <c r="CW25"/>
-      <c r="CX25"/>
-      <c r="CY25"/>
-      <c r="CZ25"/>
-      <c r="DA25"/>
-      <c r="DB25"/>
-      <c r="DC25"/>
-      <c r="DD25"/>
-      <c r="DE25"/>
-      <c r="DF25"/>
-      <c r="DG25"/>
-      <c r="DH25"/>
-      <c r="DI25"/>
-      <c r="DJ25"/>
-      <c r="DK25"/>
-      <c r="DL25"/>
-      <c r="DM25"/>
-      <c r="DN25"/>
-      <c r="DO25"/>
-      <c r="DP25"/>
-      <c r="DQ25"/>
-      <c r="DR25"/>
-      <c r="DS25"/>
-      <c r="DT25"/>
-      <c r="DU25"/>
-      <c r="DV25"/>
-      <c r="DW25"/>
-      <c r="DX25"/>
-      <c r="DY25"/>
-      <c r="DZ25"/>
-      <c r="EA25"/>
-      <c r="EB25"/>
-      <c r="EC25"/>
-      <c r="ED25"/>
-      <c r="EE25"/>
-      <c r="EF25"/>
-    </row>
-    <row r="27" spans="1:136" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>43</v>
-      </c>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+      <c r="BE26"/>
+      <c r="BF26"/>
+      <c r="BG26"/>
+      <c r="BH26"/>
+      <c r="BI26"/>
+      <c r="BJ26"/>
+      <c r="BK26"/>
+      <c r="BL26"/>
+      <c r="BM26"/>
+      <c r="BN26"/>
+      <c r="BO26"/>
+      <c r="BP26"/>
+      <c r="BQ26"/>
+      <c r="BR26"/>
+      <c r="BS26"/>
+      <c r="BT26"/>
+      <c r="BU26"/>
+      <c r="BV26"/>
+      <c r="BW26"/>
+      <c r="BX26"/>
+      <c r="BY26"/>
+      <c r="BZ26"/>
+      <c r="CA26"/>
+      <c r="CB26"/>
+      <c r="CC26"/>
+      <c r="CD26"/>
+      <c r="CE26"/>
+      <c r="CF26"/>
+      <c r="CG26"/>
+      <c r="CH26"/>
+      <c r="CI26"/>
+      <c r="CJ26"/>
+      <c r="CK26"/>
+      <c r="CL26"/>
+      <c r="CM26"/>
+      <c r="CN26"/>
+      <c r="CO26"/>
+      <c r="CP26"/>
+      <c r="CQ26"/>
+      <c r="CR26"/>
+      <c r="CS26"/>
+      <c r="CT26"/>
+      <c r="CU26"/>
+      <c r="CV26"/>
+      <c r="CW26"/>
+      <c r="CX26"/>
+      <c r="CY26"/>
+      <c r="CZ26"/>
+      <c r="DA26"/>
+      <c r="DB26"/>
+      <c r="DC26"/>
+      <c r="DD26"/>
+      <c r="DE26"/>
+      <c r="DF26"/>
+      <c r="DG26"/>
+      <c r="DH26"/>
+      <c r="DI26"/>
+      <c r="DJ26"/>
+      <c r="DK26"/>
+      <c r="DL26"/>
+      <c r="DM26"/>
+      <c r="DN26"/>
+      <c r="DO26"/>
+      <c r="DP26"/>
+      <c r="DQ26"/>
+      <c r="DR26"/>
+      <c r="DS26"/>
+      <c r="DT26"/>
+      <c r="DU26"/>
+      <c r="DV26"/>
+      <c r="DW26"/>
+      <c r="DX26"/>
+      <c r="DY26"/>
+      <c r="DZ26"/>
+      <c r="EA26"/>
+      <c r="EB26"/>
+      <c r="EC26"/>
+      <c r="ED26"/>
+      <c r="EE26"/>
+      <c r="EF26"/>
     </row>
     <row r="28" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>62</v>
+      <c r="D28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="30" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>30</v>
-      </c>
-      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>47</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>52</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F39" t="s">
         <v>55</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:98" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+    <row r="41" spans="1:98" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J39" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
-      <c r="AB39"/>
-      <c r="AC39"/>
-      <c r="AD39"/>
-      <c r="AE39"/>
-      <c r="AF39"/>
-      <c r="AG39"/>
-      <c r="AH39"/>
-      <c r="AI39"/>
-      <c r="AJ39"/>
-      <c r="AK39"/>
-      <c r="AL39"/>
-      <c r="AM39"/>
-      <c r="AN39"/>
-      <c r="AO39"/>
-      <c r="AP39"/>
-      <c r="AQ39"/>
-      <c r="AR39"/>
-      <c r="AS39"/>
-      <c r="AT39"/>
-      <c r="AU39"/>
-      <c r="AV39"/>
-      <c r="AW39"/>
-      <c r="AX39"/>
-      <c r="AY39"/>
-      <c r="AZ39"/>
-      <c r="BA39"/>
-      <c r="BB39"/>
-      <c r="BC39"/>
-      <c r="BD39"/>
-      <c r="BE39"/>
-      <c r="BF39"/>
-      <c r="BG39"/>
-      <c r="BH39"/>
-      <c r="BI39"/>
-      <c r="BJ39"/>
-      <c r="BK39"/>
-      <c r="BL39"/>
-      <c r="BM39"/>
-      <c r="BN39"/>
-      <c r="BO39"/>
-      <c r="BP39"/>
-      <c r="BQ39"/>
-      <c r="BR39"/>
-      <c r="BS39"/>
-      <c r="BT39"/>
-      <c r="BU39"/>
-      <c r="BV39"/>
-      <c r="BW39"/>
-      <c r="BX39"/>
-      <c r="BY39"/>
-      <c r="BZ39"/>
-      <c r="CA39"/>
-      <c r="CB39"/>
-      <c r="CC39"/>
-      <c r="CD39"/>
-      <c r="CE39"/>
-      <c r="CF39"/>
-      <c r="CG39"/>
-      <c r="CH39"/>
-      <c r="CI39"/>
-      <c r="CJ39"/>
-      <c r="CK39"/>
-      <c r="CL39"/>
-      <c r="CM39"/>
-      <c r="CN39"/>
-      <c r="CO39"/>
-      <c r="CP39"/>
-      <c r="CQ39"/>
-      <c r="CR39"/>
-      <c r="CS39"/>
-      <c r="CT39"/>
-    </row>
-    <row r="40" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>33</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41"/>
+      <c r="AQ41"/>
+      <c r="AR41"/>
+      <c r="AS41"/>
+      <c r="AT41"/>
+      <c r="AU41"/>
+      <c r="AV41"/>
+      <c r="AW41"/>
+      <c r="AX41"/>
+      <c r="AY41"/>
+      <c r="AZ41"/>
+      <c r="BA41"/>
+      <c r="BB41"/>
+      <c r="BC41"/>
+      <c r="BD41"/>
+      <c r="BE41"/>
+      <c r="BF41"/>
+      <c r="BG41"/>
+      <c r="BH41"/>
+      <c r="BI41"/>
+      <c r="BJ41"/>
+      <c r="BK41"/>
+      <c r="BL41"/>
+      <c r="BM41"/>
+      <c r="BN41"/>
+      <c r="BO41"/>
+      <c r="BP41"/>
+      <c r="BQ41"/>
+      <c r="BR41"/>
+      <c r="BS41"/>
+      <c r="BT41"/>
+      <c r="BU41"/>
+      <c r="BV41"/>
+      <c r="BW41"/>
+      <c r="BX41"/>
+      <c r="BY41"/>
+      <c r="BZ41"/>
+      <c r="CA41"/>
+      <c r="CB41"/>
+      <c r="CC41"/>
+      <c r="CD41"/>
+      <c r="CE41"/>
+      <c r="CF41"/>
+      <c r="CG41"/>
+      <c r="CH41"/>
+      <c r="CI41"/>
+      <c r="CJ41"/>
+      <c r="CK41"/>
+      <c r="CL41"/>
+      <c r="CM41"/>
+      <c r="CN41"/>
+      <c r="CO41"/>
+      <c r="CP41"/>
+      <c r="CQ41"/>
+      <c r="CR41"/>
+      <c r="CS41"/>
+      <c r="CT41"/>
     </row>
     <row r="42" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A42">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
         <v>34</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="43" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:98" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>35</v>
-      </c>
-      <c r="B43" s="4" t="s">
+    <row r="45" spans="1:98" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43"/>
-      <c r="X43"/>
-      <c r="Y43"/>
-      <c r="Z43"/>
-      <c r="AA43"/>
-      <c r="AB43"/>
-      <c r="AC43"/>
-      <c r="AD43"/>
-      <c r="AE43"/>
-      <c r="AF43"/>
-      <c r="AG43"/>
-      <c r="AH43"/>
-      <c r="AI43"/>
-      <c r="AJ43"/>
-      <c r="AK43"/>
-      <c r="AL43"/>
-      <c r="AM43"/>
-      <c r="AN43"/>
-      <c r="AO43"/>
-      <c r="AP43"/>
-      <c r="AQ43"/>
-      <c r="AR43"/>
-      <c r="AS43"/>
-      <c r="AT43"/>
-      <c r="AU43"/>
-      <c r="AV43"/>
-      <c r="AW43"/>
-      <c r="AX43"/>
-      <c r="AY43"/>
-      <c r="AZ43"/>
-      <c r="BA43"/>
-      <c r="BB43"/>
-      <c r="BC43"/>
-      <c r="BD43"/>
-      <c r="BE43"/>
-      <c r="BF43"/>
-      <c r="BG43"/>
-      <c r="BH43"/>
-      <c r="BI43"/>
-      <c r="BJ43"/>
-      <c r="BK43"/>
-      <c r="BL43"/>
-      <c r="BM43"/>
-      <c r="BN43"/>
-      <c r="BO43"/>
-      <c r="BP43"/>
-      <c r="BQ43"/>
-      <c r="BR43"/>
-      <c r="BS43"/>
-      <c r="BT43"/>
-      <c r="BU43"/>
-      <c r="BV43"/>
-      <c r="BW43"/>
-      <c r="BX43"/>
-      <c r="BY43"/>
-      <c r="BZ43"/>
-      <c r="CA43"/>
-      <c r="CB43"/>
-      <c r="CC43"/>
-      <c r="CD43"/>
-      <c r="CE43"/>
-      <c r="CF43"/>
-      <c r="CG43"/>
-      <c r="CH43"/>
-      <c r="CI43"/>
-      <c r="CJ43"/>
-      <c r="CK43"/>
-      <c r="CL43"/>
-      <c r="CM43"/>
-      <c r="CN43"/>
-      <c r="CO43"/>
-      <c r="CP43"/>
-      <c r="CQ43"/>
-      <c r="CR43"/>
-      <c r="CS43"/>
-      <c r="CT43"/>
-    </row>
-    <row r="45" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>36</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>37</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45"/>
+      <c r="AQ45"/>
+      <c r="AR45"/>
+      <c r="AS45"/>
+      <c r="AT45"/>
+      <c r="AU45"/>
+      <c r="AV45"/>
+      <c r="AW45"/>
+      <c r="AX45"/>
+      <c r="AY45"/>
+      <c r="AZ45"/>
+      <c r="BA45"/>
+      <c r="BB45"/>
+      <c r="BC45"/>
+      <c r="BD45"/>
+      <c r="BE45"/>
+      <c r="BF45"/>
+      <c r="BG45"/>
+      <c r="BH45"/>
+      <c r="BI45"/>
+      <c r="BJ45"/>
+      <c r="BK45"/>
+      <c r="BL45"/>
+      <c r="BM45"/>
+      <c r="BN45"/>
+      <c r="BO45"/>
+      <c r="BP45"/>
+      <c r="BQ45"/>
+      <c r="BR45"/>
+      <c r="BS45"/>
+      <c r="BT45"/>
+      <c r="BU45"/>
+      <c r="BV45"/>
+      <c r="BW45"/>
+      <c r="BX45"/>
+      <c r="BY45"/>
+      <c r="BZ45"/>
+      <c r="CA45"/>
+      <c r="CB45"/>
+      <c r="CC45"/>
+      <c r="CD45"/>
+      <c r="CE45"/>
+      <c r="CF45"/>
+      <c r="CG45"/>
+      <c r="CH45"/>
+      <c r="CI45"/>
+      <c r="CJ45"/>
+      <c r="CK45"/>
+      <c r="CL45"/>
+      <c r="CM45"/>
+      <c r="CN45"/>
+      <c r="CO45"/>
+      <c r="CP45"/>
+      <c r="CQ45"/>
+      <c r="CR45"/>
+      <c r="CS45"/>
+      <c r="CT45"/>
     </row>
     <row r="47" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>39</v>
-      </c>
-      <c r="B48" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B39:B43">
-    <sortCondition ref="B39:B43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B41:B45">
+    <sortCondition ref="B41:B45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1982,8 +1993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1016CDD-6B44-4843-A40E-247D3C67CE16}">
   <dimension ref="A2:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Teams.xlsx
+++ b/Teams.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIHT\cg\02batch05042021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2EE5C1-DFAE-4F83-B978-0E476BC4D530}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD648D8-E13F-477F-87B2-E6D420B2D1F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D5692CA-8987-4F28-9638-79F47074A2C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6D5692CA-8987-4F28-9638-79F47074A2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Latest Teams List" sheetId="2" r:id="rId2"/>
-    <sheet name="Status" sheetId="3" r:id="rId3"/>
+    <sheet name="See This - After Dropouts" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="75">
   <si>
     <t>Arpit Jain</t>
   </si>
@@ -215,9 +214,6 @@
     <t>BookStoreManagementApp</t>
   </si>
   <si>
-    <t>ElectronicsPurchaseApp</t>
-  </si>
-  <si>
     <t>FeedbackManagementSystem</t>
   </si>
   <si>
@@ -242,24 +238,6 @@
     <t>Suffering from Covid</t>
   </si>
   <si>
-    <t>Not Responding</t>
-  </si>
-  <si>
-    <t>Project Status</t>
-  </si>
-  <si>
-    <t>BookStoreManagement</t>
-  </si>
-  <si>
-    <t>FeedbaciManagementSystem</t>
-  </si>
-  <si>
-    <t>OnlineFoodDeliveryApplication</t>
-  </si>
-  <si>
-    <t>Good Progress</t>
-  </si>
-  <si>
     <t>Not willing to participate - informed through email</t>
   </si>
   <si>
@@ -270,13 +248,25 @@
   </si>
   <si>
     <t>Moved To Team - 5 (OnlineFoodDeliveryAppication)</t>
+  </si>
+  <si>
+    <t>ElectronicsPurchaseApp - Batch disolved</t>
+  </si>
+  <si>
+    <t>prajjwalchauhan093@gmail.com</t>
+  </si>
+  <si>
+    <t>Shifted from Team-2</t>
+  </si>
+  <si>
+    <t>Shfted from Team-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,12 +300,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -359,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -367,12 +351,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -688,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0058E4E4-0F20-4340-AB80-19A332629338}">
-  <dimension ref="A3:EF50"/>
+  <dimension ref="A3:EF52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,6 +678,7 @@
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:136" x14ac:dyDescent="0.3">
@@ -708,7 +688,7 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -753,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -895,13 +875,13 @@
       <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>59</v>
+      <c r="J9" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:136" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -913,7 +893,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
@@ -1052,7 +1032,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:136" x14ac:dyDescent="0.3">
@@ -1065,7 +1045,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:136" x14ac:dyDescent="0.3">
@@ -1079,7 +1059,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:136" x14ac:dyDescent="0.3">
@@ -1089,7 +1069,7 @@
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1110,7 +1090,7 @@
         <v>51</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:136" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1118,7 +1098,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
@@ -1252,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -1389,600 +1369,617 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:136" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="21" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:136" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>61</v>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>11</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:136" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+      <c r="C27" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:136" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-      <c r="AE26"/>
-      <c r="AF26"/>
-      <c r="AG26"/>
-      <c r="AH26"/>
-      <c r="AI26"/>
-      <c r="AJ26"/>
-      <c r="AK26"/>
-      <c r="AL26"/>
-      <c r="AM26"/>
-      <c r="AN26"/>
-      <c r="AO26"/>
-      <c r="AP26"/>
-      <c r="AQ26"/>
-      <c r="AR26"/>
-      <c r="AS26"/>
-      <c r="AT26"/>
-      <c r="AU26"/>
-      <c r="AV26"/>
-      <c r="AW26"/>
-      <c r="AX26"/>
-      <c r="AY26"/>
-      <c r="AZ26"/>
-      <c r="BA26"/>
-      <c r="BB26"/>
-      <c r="BC26"/>
-      <c r="BD26"/>
-      <c r="BE26"/>
-      <c r="BF26"/>
-      <c r="BG26"/>
-      <c r="BH26"/>
-      <c r="BI26"/>
-      <c r="BJ26"/>
-      <c r="BK26"/>
-      <c r="BL26"/>
-      <c r="BM26"/>
-      <c r="BN26"/>
-      <c r="BO26"/>
-      <c r="BP26"/>
-      <c r="BQ26"/>
-      <c r="BR26"/>
-      <c r="BS26"/>
-      <c r="BT26"/>
-      <c r="BU26"/>
-      <c r="BV26"/>
-      <c r="BW26"/>
-      <c r="BX26"/>
-      <c r="BY26"/>
-      <c r="BZ26"/>
-      <c r="CA26"/>
-      <c r="CB26"/>
-      <c r="CC26"/>
-      <c r="CD26"/>
-      <c r="CE26"/>
-      <c r="CF26"/>
-      <c r="CG26"/>
-      <c r="CH26"/>
-      <c r="CI26"/>
-      <c r="CJ26"/>
-      <c r="CK26"/>
-      <c r="CL26"/>
-      <c r="CM26"/>
-      <c r="CN26"/>
-      <c r="CO26"/>
-      <c r="CP26"/>
-      <c r="CQ26"/>
-      <c r="CR26"/>
-      <c r="CS26"/>
-      <c r="CT26"/>
-      <c r="CU26"/>
-      <c r="CV26"/>
-      <c r="CW26"/>
-      <c r="CX26"/>
-      <c r="CY26"/>
-      <c r="CZ26"/>
-      <c r="DA26"/>
-      <c r="DB26"/>
-      <c r="DC26"/>
-      <c r="DD26"/>
-      <c r="DE26"/>
-      <c r="DF26"/>
-      <c r="DG26"/>
-      <c r="DH26"/>
-      <c r="DI26"/>
-      <c r="DJ26"/>
-      <c r="DK26"/>
-      <c r="DL26"/>
-      <c r="DM26"/>
-      <c r="DN26"/>
-      <c r="DO26"/>
-      <c r="DP26"/>
-      <c r="DQ26"/>
-      <c r="DR26"/>
-      <c r="DS26"/>
-      <c r="DT26"/>
-      <c r="DU26"/>
-      <c r="DV26"/>
-      <c r="DW26"/>
-      <c r="DX26"/>
-      <c r="DY26"/>
-      <c r="DZ26"/>
-      <c r="EA26"/>
-      <c r="EB26"/>
-      <c r="EC26"/>
-      <c r="ED26"/>
-      <c r="EE26"/>
-      <c r="EF26"/>
-    </row>
-    <row r="28" spans="1:136" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:136" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="J28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+      <c r="BK28"/>
+      <c r="BL28"/>
+      <c r="BM28"/>
+      <c r="BN28"/>
+      <c r="BO28"/>
+      <c r="BP28"/>
+      <c r="BQ28"/>
+      <c r="BR28"/>
+      <c r="BS28"/>
+      <c r="BT28"/>
+      <c r="BU28"/>
+      <c r="BV28"/>
+      <c r="BW28"/>
+      <c r="BX28"/>
+      <c r="BY28"/>
+      <c r="BZ28"/>
+      <c r="CA28"/>
+      <c r="CB28"/>
+      <c r="CC28"/>
+      <c r="CD28"/>
+      <c r="CE28"/>
+      <c r="CF28"/>
+      <c r="CG28"/>
+      <c r="CH28"/>
+      <c r="CI28"/>
+      <c r="CJ28"/>
+      <c r="CK28"/>
+      <c r="CL28"/>
+      <c r="CM28"/>
+      <c r="CN28"/>
+      <c r="CO28"/>
+      <c r="CP28"/>
+      <c r="CQ28"/>
+      <c r="CR28"/>
+      <c r="CS28"/>
+      <c r="CT28"/>
+      <c r="CU28"/>
+      <c r="CV28"/>
+      <c r="CW28"/>
+      <c r="CX28"/>
+      <c r="CY28"/>
+      <c r="CZ28"/>
+      <c r="DA28"/>
+      <c r="DB28"/>
+      <c r="DC28"/>
+      <c r="DD28"/>
+      <c r="DE28"/>
+      <c r="DF28"/>
+      <c r="DG28"/>
+      <c r="DH28"/>
+      <c r="DI28"/>
+      <c r="DJ28"/>
+      <c r="DK28"/>
+      <c r="DL28"/>
+      <c r="DM28"/>
+      <c r="DN28"/>
+      <c r="DO28"/>
+      <c r="DP28"/>
+      <c r="DQ28"/>
+      <c r="DR28"/>
+      <c r="DS28"/>
+      <c r="DT28"/>
+      <c r="DU28"/>
+      <c r="DV28"/>
+      <c r="DW28"/>
+      <c r="DX28"/>
+      <c r="DY28"/>
+      <c r="DZ28"/>
+      <c r="EA28"/>
+      <c r="EB28"/>
+      <c r="EC28"/>
+      <c r="ED28"/>
+      <c r="EE28"/>
+      <c r="EF28"/>
     </row>
     <row r="30" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:136" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>28</v>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>20</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+    <row r="41" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>47</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
         <v>52</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F41" t="s">
         <v>55</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:98" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
+      <c r="J41" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:98" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
-      <c r="AB41"/>
-      <c r="AC41"/>
-      <c r="AD41"/>
-      <c r="AE41"/>
-      <c r="AF41"/>
-      <c r="AG41"/>
-      <c r="AH41"/>
-      <c r="AI41"/>
-      <c r="AJ41"/>
-      <c r="AK41"/>
-      <c r="AL41"/>
-      <c r="AM41"/>
-      <c r="AN41"/>
-      <c r="AO41"/>
-      <c r="AP41"/>
-      <c r="AQ41"/>
-      <c r="AR41"/>
-      <c r="AS41"/>
-      <c r="AT41"/>
-      <c r="AU41"/>
-      <c r="AV41"/>
-      <c r="AW41"/>
-      <c r="AX41"/>
-      <c r="AY41"/>
-      <c r="AZ41"/>
-      <c r="BA41"/>
-      <c r="BB41"/>
-      <c r="BC41"/>
-      <c r="BD41"/>
-      <c r="BE41"/>
-      <c r="BF41"/>
-      <c r="BG41"/>
-      <c r="BH41"/>
-      <c r="BI41"/>
-      <c r="BJ41"/>
-      <c r="BK41"/>
-      <c r="BL41"/>
-      <c r="BM41"/>
-      <c r="BN41"/>
-      <c r="BO41"/>
-      <c r="BP41"/>
-      <c r="BQ41"/>
-      <c r="BR41"/>
-      <c r="BS41"/>
-      <c r="BT41"/>
-      <c r="BU41"/>
-      <c r="BV41"/>
-      <c r="BW41"/>
-      <c r="BX41"/>
-      <c r="BY41"/>
-      <c r="BZ41"/>
-      <c r="CA41"/>
-      <c r="CB41"/>
-      <c r="CC41"/>
-      <c r="CD41"/>
-      <c r="CE41"/>
-      <c r="CF41"/>
-      <c r="CG41"/>
-      <c r="CH41"/>
-      <c r="CI41"/>
-      <c r="CJ41"/>
-      <c r="CK41"/>
-      <c r="CL41"/>
-      <c r="CM41"/>
-      <c r="CN41"/>
-      <c r="CO41"/>
-      <c r="CP41"/>
-      <c r="CQ41"/>
-      <c r="CR41"/>
-      <c r="CS41"/>
-      <c r="CT41"/>
-    </row>
-    <row r="42" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>22</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="J43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43"/>
+      <c r="AQ43"/>
+      <c r="AR43"/>
+      <c r="AS43"/>
+      <c r="AT43"/>
+      <c r="AU43"/>
+      <c r="AV43"/>
+      <c r="AW43"/>
+      <c r="AX43"/>
+      <c r="AY43"/>
+      <c r="AZ43"/>
+      <c r="BA43"/>
+      <c r="BB43"/>
+      <c r="BC43"/>
+      <c r="BD43"/>
+      <c r="BE43"/>
+      <c r="BF43"/>
+      <c r="BG43"/>
+      <c r="BH43"/>
+      <c r="BI43"/>
+      <c r="BJ43"/>
+      <c r="BK43"/>
+      <c r="BL43"/>
+      <c r="BM43"/>
+      <c r="BN43"/>
+      <c r="BO43"/>
+      <c r="BP43"/>
+      <c r="BQ43"/>
+      <c r="BR43"/>
+      <c r="BS43"/>
+      <c r="BT43"/>
+      <c r="BU43"/>
+      <c r="BV43"/>
+      <c r="BW43"/>
+      <c r="BX43"/>
+      <c r="BY43"/>
+      <c r="BZ43"/>
+      <c r="CA43"/>
+      <c r="CB43"/>
+      <c r="CC43"/>
+      <c r="CD43"/>
+      <c r="CE43"/>
+      <c r="CF43"/>
+      <c r="CG43"/>
+      <c r="CH43"/>
+      <c r="CI43"/>
+      <c r="CJ43"/>
+      <c r="CK43"/>
+      <c r="CL43"/>
+      <c r="CM43"/>
+      <c r="CN43"/>
+      <c r="CO43"/>
+      <c r="CP43"/>
+      <c r="CQ43"/>
+      <c r="CR43"/>
+      <c r="CS43"/>
+      <c r="CT43"/>
     </row>
     <row r="44" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>23</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:98" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="4" t="s">
+    <row r="47" spans="1:98" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45"/>
-      <c r="X45"/>
-      <c r="Y45"/>
-      <c r="Z45"/>
-      <c r="AA45"/>
-      <c r="AB45"/>
-      <c r="AC45"/>
-      <c r="AD45"/>
-      <c r="AE45"/>
-      <c r="AF45"/>
-      <c r="AG45"/>
-      <c r="AH45"/>
-      <c r="AI45"/>
-      <c r="AJ45"/>
-      <c r="AK45"/>
-      <c r="AL45"/>
-      <c r="AM45"/>
-      <c r="AN45"/>
-      <c r="AO45"/>
-      <c r="AP45"/>
-      <c r="AQ45"/>
-      <c r="AR45"/>
-      <c r="AS45"/>
-      <c r="AT45"/>
-      <c r="AU45"/>
-      <c r="AV45"/>
-      <c r="AW45"/>
-      <c r="AX45"/>
-      <c r="AY45"/>
-      <c r="AZ45"/>
-      <c r="BA45"/>
-      <c r="BB45"/>
-      <c r="BC45"/>
-      <c r="BD45"/>
-      <c r="BE45"/>
-      <c r="BF45"/>
-      <c r="BG45"/>
-      <c r="BH45"/>
-      <c r="BI45"/>
-      <c r="BJ45"/>
-      <c r="BK45"/>
-      <c r="BL45"/>
-      <c r="BM45"/>
-      <c r="BN45"/>
-      <c r="BO45"/>
-      <c r="BP45"/>
-      <c r="BQ45"/>
-      <c r="BR45"/>
-      <c r="BS45"/>
-      <c r="BT45"/>
-      <c r="BU45"/>
-      <c r="BV45"/>
-      <c r="BW45"/>
-      <c r="BX45"/>
-      <c r="BY45"/>
-      <c r="BZ45"/>
-      <c r="CA45"/>
-      <c r="CB45"/>
-      <c r="CC45"/>
-      <c r="CD45"/>
-      <c r="CE45"/>
-      <c r="CF45"/>
-      <c r="CG45"/>
-      <c r="CH45"/>
-      <c r="CI45"/>
-      <c r="CJ45"/>
-      <c r="CK45"/>
-      <c r="CL45"/>
-      <c r="CM45"/>
-      <c r="CN45"/>
-      <c r="CO45"/>
-      <c r="CP45"/>
-      <c r="CQ45"/>
-      <c r="CR45"/>
-      <c r="CS45"/>
-      <c r="CT45"/>
-    </row>
-    <row r="47" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>24</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:98" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47"/>
+      <c r="AQ47"/>
+      <c r="AR47"/>
+      <c r="AS47"/>
+      <c r="AT47"/>
+      <c r="AU47"/>
+      <c r="AV47"/>
+      <c r="AW47"/>
+      <c r="AX47"/>
+      <c r="AY47"/>
+      <c r="AZ47"/>
+      <c r="BA47"/>
+      <c r="BB47"/>
+      <c r="BC47"/>
+      <c r="BD47"/>
+      <c r="BE47"/>
+      <c r="BF47"/>
+      <c r="BG47"/>
+      <c r="BH47"/>
+      <c r="BI47"/>
+      <c r="BJ47"/>
+      <c r="BK47"/>
+      <c r="BL47"/>
+      <c r="BM47"/>
+      <c r="BN47"/>
+      <c r="BO47"/>
+      <c r="BP47"/>
+      <c r="BQ47"/>
+      <c r="BR47"/>
+      <c r="BS47"/>
+      <c r="BT47"/>
+      <c r="BU47"/>
+      <c r="BV47"/>
+      <c r="BW47"/>
+      <c r="BX47"/>
+      <c r="BY47"/>
+      <c r="BZ47"/>
+      <c r="CA47"/>
+      <c r="CB47"/>
+      <c r="CC47"/>
+      <c r="CD47"/>
+      <c r="CE47"/>
+      <c r="CF47"/>
+      <c r="CG47"/>
+      <c r="CH47"/>
+      <c r="CI47"/>
+      <c r="CJ47"/>
+      <c r="CK47"/>
+      <c r="CL47"/>
+      <c r="CM47"/>
+      <c r="CN47"/>
+      <c r="CO47"/>
+      <c r="CP47"/>
+      <c r="CQ47"/>
+      <c r="CR47"/>
+      <c r="CS47"/>
+      <c r="CT47"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>25</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>26</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B41:B45">
-    <sortCondition ref="B41:B45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B43:B47">
+    <sortCondition ref="B43:B47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1990,526 +1987,359 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1016CDD-6B44-4843-A40E-247D3C67CE16}">
-  <dimension ref="A2:J60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F93B5B-B787-4B95-A518-6BED4AA4DACF}">
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>17</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>22</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>24</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>26</v>
-      </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>27</v>
-      </c>
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>28</v>
-      </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>29</v>
-      </c>
-      <c r="B45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>30</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>32</v>
-      </c>
-      <c r="B51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>33</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>34</v>
-      </c>
-      <c r="B53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>36</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" t="s">
-        <v>47</v>
-      </c>
-      <c r="E58" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="F47" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
         <v>38</v>
       </c>
-      <c r="B59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>39</v>
-      </c>
-      <c r="B60" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D42:I42"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E35C49C-584C-402F-9EC1-82292FBB310C}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>44305</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Teams.xlsx
+++ b/Teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIHT\cg\02batch05042021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD648D8-E13F-477F-87B2-E6D420B2D1F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A986417-BA85-49F2-A2B1-A38AB7F83E11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6D5692CA-8987-4F28-9638-79F47074A2C5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="77">
   <si>
     <t>Arpit Jain</t>
   </si>
@@ -260,13 +260,19 @@
   </si>
   <si>
     <t>Shfted from Team-2</t>
+  </si>
+  <si>
+    <t>Applied Sick Leave</t>
+  </si>
+  <si>
+    <t>Batch disolved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +306,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -343,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,6 +366,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1988,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F93B5B-B787-4B95-A518-6BED4AA4DACF}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2011,7 +2025,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2055,6 +2069,9 @@
       <c r="C7" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="F7" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="6"/>
@@ -2071,7 +2088,7 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2107,7 +2124,7 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2123,7 +2140,7 @@
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
@@ -2153,10 +2170,10 @@
       <c r="A21">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2172,7 +2189,7 @@
       <c r="A25">
         <v>13</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2221,7 +2238,7 @@
       <c r="A32">
         <v>17</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2234,39 +2251,49 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>19</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>20</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>45</v>
       </c>
@@ -2274,11 +2301,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>22</v>
-      </c>
-      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2291,23 +2318,23 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
@@ -2315,8 +2342,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>23</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2329,17 +2359,24 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>24</v>
+      </c>
       <c r="C48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>25</v>
+      </c>
       <c r="C49" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Teams.xlsx
+++ b/Teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIHT\cg\02batch05042021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A986417-BA85-49F2-A2B1-A38AB7F83E11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B42F9B-F6D8-4569-A64C-8CC7F2FAAE09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6D5692CA-8987-4F28-9638-79F47074A2C5}"/>
+    <workbookView xWindow="36" yWindow="0" windowWidth="22956" windowHeight="12360" activeTab="1" xr2:uid="{6D5692CA-8987-4F28-9638-79F47074A2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="179">
   <si>
     <t>Arpit Jain</t>
   </si>
@@ -266,6 +266,312 @@
   </si>
   <si>
     <t>Batch disolved</t>
+  </si>
+  <si>
+    <t>Day - 1</t>
+  </si>
+  <si>
+    <t>models, entities service, dao are completed.</t>
+  </si>
+  <si>
+    <t>test cases are left.</t>
+  </si>
+  <si>
+    <t>arpit jain</t>
+  </si>
+  <si>
+    <t>no updates are given</t>
+  </si>
+  <si>
+    <t>15% of test cases are left</t>
+  </si>
+  <si>
+    <t>model, entity, service, dao, test cases</t>
+  </si>
+  <si>
+    <t>requirement sheet, test case sheet, class diagrams, er diagram is done.</t>
+  </si>
+  <si>
+    <t>test cases are completed</t>
+  </si>
+  <si>
+    <t>requirement sheet, test case sheet yet to complete</t>
+  </si>
+  <si>
+    <t>er diagram is completed</t>
+  </si>
+  <si>
+    <t>60% test cases are completed</t>
+  </si>
+  <si>
+    <t>requirement sheet, test case sheet is done</t>
+  </si>
+  <si>
+    <t>requirement is done. Er digram, class diagram, test case sheet</t>
+  </si>
+  <si>
+    <t>Day-2</t>
+  </si>
+  <si>
+    <t>artifacts, test cases, service implementation</t>
+  </si>
+  <si>
+    <t>artifacts are completed.</t>
+  </si>
+  <si>
+    <t>artifacts are completed. Test cases are completed.</t>
+  </si>
+  <si>
+    <t>test cases are completed.</t>
+  </si>
+  <si>
+    <t>50% of service implementation is started.</t>
+  </si>
+  <si>
+    <t>User Module, Review Module</t>
+  </si>
+  <si>
+    <t>Order Management Module</t>
+  </si>
+  <si>
+    <t>Book Management Module</t>
+  </si>
+  <si>
+    <t>Feedback, Login Module</t>
+  </si>
+  <si>
+    <t>Training Program Management Module</t>
+  </si>
+  <si>
+    <t>Course Management Module</t>
+  </si>
+  <si>
+    <t>Faculty Management Module</t>
+  </si>
+  <si>
+    <t>80% of test cases are completed</t>
+  </si>
+  <si>
+    <t>models, entites, dao completed.</t>
+  </si>
+  <si>
+    <t>Login Module, Revenue Module</t>
+  </si>
+  <si>
+    <t>sequence diagram is pending.</t>
+  </si>
+  <si>
+    <t>Login, Customer Module</t>
+  </si>
+  <si>
+    <t>Restaurant Module</t>
+  </si>
+  <si>
+    <t>Order Module</t>
+  </si>
+  <si>
+    <t>Bill Module</t>
+  </si>
+  <si>
+    <t>artifacts are completed</t>
+  </si>
+  <si>
+    <t>Order, Stock Module</t>
+  </si>
+  <si>
+    <t>Admission Committee Module</t>
+  </si>
+  <si>
+    <t>80% of service implementation is doing.</t>
+  </si>
+  <si>
+    <t>90% of service implementation is completed</t>
+  </si>
+  <si>
+    <t>shifted to Team-7 (OnlineVegetableApp)</t>
+  </si>
+  <si>
+    <t>shifted to Team - 8 (UniversityCourseAdmissionApplication(</t>
+  </si>
+  <si>
+    <t>90% of service implementation is done.</t>
+  </si>
+  <si>
+    <t>artifacts are done</t>
+  </si>
+  <si>
+    <t>80% of service implementation is started.</t>
+  </si>
+  <si>
+    <t>test cases are complleted</t>
+  </si>
+  <si>
+    <t>Day-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service implementation, test cases </t>
+  </si>
+  <si>
+    <t>Suffering from COVID - informed on 27/4/2021</t>
+  </si>
+  <si>
+    <t>Core Java Project Links</t>
+  </si>
+  <si>
+    <t>https://github.com/akkiakki99/FeedBack-Management-System</t>
+  </si>
+  <si>
+    <t>completed till service layer</t>
+  </si>
+  <si>
+    <t>https://github.com/aditya01kumar/GreatOutdoorApplicationPhase1</t>
+  </si>
+  <si>
+    <t>partially done</t>
+  </si>
+  <si>
+    <t>https://github.com/Pankhurisriv/CapgProject</t>
+  </si>
+  <si>
+    <t>till serice layer completed</t>
+  </si>
+  <si>
+    <t>https://github.com/ArpitTailong/online-food-delivery-application</t>
+  </si>
+  <si>
+    <t>except UI layer, rest is done</t>
+  </si>
+  <si>
+    <t>https://github.com/Shantanu231298/Online-Shopping_application</t>
+  </si>
+  <si>
+    <t>https://github.com/Akshu01/UniversityCourseAdmissionApplication</t>
+  </si>
+  <si>
+    <t>https://github.com/ArpitJain3012/BOOK-MANAGEMENT-APPLICATION</t>
+  </si>
+  <si>
+    <t>Day-4</t>
+  </si>
+  <si>
+    <t>rest api</t>
+  </si>
+  <si>
+    <t>No status is given</t>
+  </si>
+  <si>
+    <t>controllers are started</t>
+  </si>
+  <si>
+    <t>Day-5</t>
+  </si>
+  <si>
+    <t>40% of rest controller is done.</t>
+  </si>
+  <si>
+    <t>80% of rest controllers are done</t>
+  </si>
+  <si>
+    <t>70% of rest controllers are done</t>
+  </si>
+  <si>
+    <t>Day-6</t>
+  </si>
+  <si>
+    <t>80% test cases are running</t>
+  </si>
+  <si>
+    <t>90% test cases are running</t>
+  </si>
+  <si>
+    <t>controllers are running</t>
+  </si>
+  <si>
+    <t>apis are running</t>
+  </si>
+  <si>
+    <t>95% of test cases are running</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Login, University Staff Member Module</t>
+  </si>
+  <si>
+    <t>Admission Module</t>
+  </si>
+  <si>
+    <t>Customer Module, Order Management Module</t>
+  </si>
+  <si>
+    <t>did not participated any module - health issues in home - informed through email</t>
+  </si>
+  <si>
+    <t>Product Module, Address Module</t>
+  </si>
+  <si>
+    <t>Cart Module, Wishlist Management Module</t>
+  </si>
+  <si>
+    <t>Customer, Bill, Payment Module</t>
+  </si>
+  <si>
+    <t>suffering from COVID + Laptop issue - mailed me on 3-apr-2021</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>95% of controllers are working</t>
+  </si>
+  <si>
+    <t>90% controllers are executed</t>
+  </si>
+  <si>
+    <t>80% of test cases are running</t>
+  </si>
+  <si>
+    <t>50% of test cases are running</t>
+  </si>
+  <si>
+    <t>40% of test cases are completed</t>
+  </si>
+  <si>
+    <t>most of the test cases are running. Around 20% of test cases are causing issues.</t>
+  </si>
+  <si>
+    <t>almost all of controllers are working. Around 5% of rest controllers are done.</t>
+  </si>
+  <si>
+    <t>60% controllers are working</t>
+  </si>
+  <si>
+    <t>60% controllers are working. They are left with 40% of controllers</t>
+  </si>
+  <si>
+    <t>50% of test cases are running. They are left with correcting mistakes in test cases only.</t>
+  </si>
+  <si>
+    <t>40% of test cases are completed. They are left with correcting mistakes in test cases only.</t>
+  </si>
+  <si>
+    <t>ElectronicsPurchaseApp</t>
+  </si>
+  <si>
+    <t>Project Status as on 3-apr-2021 evening</t>
+  </si>
+  <si>
+    <t>Day-7</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Dayt-7</t>
   </si>
 </sst>
 </file>
@@ -318,7 +624,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +649,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -356,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -367,6 +679,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0058E4E4-0F20-4340-AB80-19A332629338}">
   <dimension ref="A3:EF52"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2002,18 +2317,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F93B5B-B787-4B95-A518-6BED4AA4DACF}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:W142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="I61" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>39</v>
       </c>
@@ -2021,7 +2337,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2037,32 +2353,44 @@
       <c r="F2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>40</v>
       </c>
@@ -2073,10 +2401,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C8" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
@@ -2084,7 +2412,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2100,24 +2428,33 @@
       <c r="F11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2127,8 +2464,11 @@
       <c r="F14" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
@@ -2136,10 +2476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>9</v>
-      </c>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -2149,26 +2486,35 @@
       <c r="F18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I18" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>47</v>
@@ -2176,8 +2522,11 @@
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2185,9 +2534,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>47</v>
@@ -2201,57 +2550,74 @@
       <c r="F25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
+      <c r="I28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="E31" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="K32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C33" s="4" t="s">
         <v>27</v>
       </c>
@@ -2264,15 +2630,15 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>18</v>
-      </c>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C35" s="7" t="s">
         <v>29</v>
       </c>
@@ -2285,15 +2651,15 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>19</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>45</v>
       </c>
@@ -2301,9 +2667,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>47</v>
@@ -2317,24 +2683,41 @@
       <c r="F40" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>21</v>
-      </c>
+      <c r="K40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
@@ -2342,9 +2725,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
@@ -2358,21 +2741,663 @@
       <c r="F47" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
         <v>38</v>
+      </c>
+      <c r="J49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="W54" s="5"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>78</v>
+      </c>
+      <c r="K56" t="s">
+        <v>95</v>
+      </c>
+      <c r="S56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+      <c r="K57" t="s">
+        <v>96</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>79</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="S58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S59" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B60" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="S60" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>81</v>
+      </c>
+      <c r="K63" t="s">
+        <v>93</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K64" t="s">
+        <v>105</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="S64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K65" t="s">
+        <v>104</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="S65" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="R67" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="S67" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>78</v>
+      </c>
+      <c r="K69" t="s">
+        <v>107</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>85</v>
+      </c>
+      <c r="K70" t="s">
+        <v>115</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="S70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="S71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>87</v>
+      </c>
+      <c r="S72" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="R73" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B74" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>78</v>
+      </c>
+      <c r="K75" t="s">
+        <v>95</v>
+      </c>
+      <c r="R75" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>88</v>
+      </c>
+      <c r="K76" t="s">
+        <v>116</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="S76" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>87</v>
+      </c>
+      <c r="K77" t="s">
+        <v>112</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="S77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B80" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="S80" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B83" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" t="s">
+        <v>78</v>
+      </c>
+      <c r="K84" t="s">
+        <v>94</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>85</v>
+      </c>
+      <c r="K85" t="s">
+        <v>119</v>
+      </c>
+      <c r="R85" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="S85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>89</v>
+      </c>
+      <c r="R86" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="S86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="R88" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="S88" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B89" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C90" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" t="s">
+        <v>78</v>
+      </c>
+      <c r="K90" t="s">
+        <v>122</v>
+      </c>
+      <c r="R90" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S90" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>82</v>
+      </c>
+      <c r="K91" t="s">
+        <v>120</v>
+      </c>
+      <c r="R91" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="S91" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>90</v>
+      </c>
+      <c r="K92" t="s">
+        <v>121</v>
+      </c>
+      <c r="R92" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="S92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>129</v>
+      </c>
+      <c r="F98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+      <c r="F99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>133</v>
+      </c>
+      <c r="F100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>135</v>
+      </c>
+      <c r="F101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>136</v>
+      </c>
+      <c r="F102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B116" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B121" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B127" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E127" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B132" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B135" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E136" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B141" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C142" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Teams.xlsx
+++ b/Teams.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIHT\cg\02batch05042021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B42F9B-F6D8-4569-A64C-8CC7F2FAAE09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48F2977-31D2-418E-AD46-F4D85E5335F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="0" windowWidth="22956" windowHeight="12360" activeTab="1" xr2:uid="{6D5692CA-8987-4F28-9638-79F47074A2C5}"/>
+    <workbookView xWindow="84" yWindow="0" windowWidth="22956" windowHeight="12360" activeTab="2" xr2:uid="{6D5692CA-8987-4F28-9638-79F47074A2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="See This - After Dropouts" sheetId="4" r:id="rId2"/>
+    <sheet name="Sprint-1 Participation" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="188">
   <si>
     <t>Arpit Jain</t>
   </si>
@@ -572,6 +573,33 @@
   </si>
   <si>
     <t>Dayt-7</t>
+  </si>
+  <si>
+    <t>100% participation</t>
+  </si>
+  <si>
+    <t>50% participation</t>
+  </si>
+  <si>
+    <t>60% done</t>
+  </si>
+  <si>
+    <t>40% done</t>
+  </si>
+  <si>
+    <t>50% partcipation</t>
+  </si>
+  <si>
+    <t>80% participation</t>
+  </si>
+  <si>
+    <t>nill</t>
+  </si>
+  <si>
+    <t>70% done</t>
+  </si>
+  <si>
+    <t>85% participation</t>
   </si>
 </sst>
 </file>
@@ -2319,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F93B5B-B787-4B95-A518-6BED4AA4DACF}">
   <dimension ref="A1:W142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I61" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3404,4 +3432,260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD54777-E186-41D4-8837-7F7E918528F0}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>